--- a/SabaShann/Inventory-Records-Sample-Data.xlsx
+++ b/SabaShann/Inventory-Records-Sample-Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cadd Mentor\Student_Class_Code\Sandeep_C Language_Classes\SabaShann\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F58828-CA2D-48AC-9F92-377B299C951C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22900375-55E5-4BBC-9DF2-28E560E45273}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" activeTab="2" xr2:uid="{A31F09EB-BC4A-4E28-AFD6-656B84808B88}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22416" windowHeight="9012" activeTab="2" xr2:uid="{A31F09EB-BC4A-4E28-AFD6-656B84808B88}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="67">
   <si>
     <t>Excel Sample Data</t>
   </si>
@@ -234,6 +234,9 @@
   </si>
   <si>
     <t xml:space="preserve">Count of Number of </t>
+  </si>
+  <si>
+    <t>=</t>
   </si>
 </sst>
 </file>
@@ -1372,7 +1375,7 @@
   <dimension ref="B2:I52"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B6" sqref="B6:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="14.4"/>
@@ -2642,12 +2645,319 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EC4215C-D28D-4A84-A417-9CF4C5892266}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="46.8">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="14.4">
+      <c r="A2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="6">
+        <v>50</v>
+      </c>
+      <c r="D2" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="14.4">
+      <c r="A3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="6">
+        <v>40</v>
+      </c>
+      <c r="D3" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="14.4">
+      <c r="A4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="6">
+        <v>60</v>
+      </c>
+      <c r="D4" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="14.4">
+      <c r="A5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="6">
+        <v>30</v>
+      </c>
+      <c r="D5" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="14.4">
+      <c r="A6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="6">
+        <v>70</v>
+      </c>
+      <c r="D6" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="14.4">
+      <c r="A7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="6">
+        <v>45</v>
+      </c>
+      <c r="D7" s="6">
+        <v>18</v>
+      </c>
+      <c r="F7">
+        <f>AVERAGE(C2:C5)</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="14.4">
+      <c r="A8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="6">
+        <v>55</v>
+      </c>
+      <c r="D8" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="14.4">
+      <c r="A9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="6">
+        <v>25</v>
+      </c>
+      <c r="D9" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="14.4">
+      <c r="A10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="6">
+        <v>35</v>
+      </c>
+      <c r="D10" s="6">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="14.4">
+      <c r="A11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="6">
+        <v>40</v>
+      </c>
+      <c r="D11" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="14.4">
+      <c r="A12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="6">
+        <v>20</v>
+      </c>
+      <c r="D12" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="14.4">
+      <c r="A13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="6">
+        <v>30</v>
+      </c>
+      <c r="D13" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="14.4">
+      <c r="A14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="6">
+        <v>50</v>
+      </c>
+      <c r="D14" s="6">
+        <v>25</v>
+      </c>
+      <c r="G14">
+        <f>AVERAGEIF(B2:B19,"Laptop",C2:C19)</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="14.4">
+      <c r="A15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="6">
+        <v>60</v>
+      </c>
+      <c r="D15" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="14.4">
+      <c r="A16" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="6">
+        <v>40</v>
+      </c>
+      <c r="D16" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="14.4">
+      <c r="A17" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="6">
+        <v>35</v>
+      </c>
+      <c r="D17" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="14.4">
+      <c r="A18" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="6">
+        <v>25</v>
+      </c>
+      <c r="D18" s="6">
+        <v>10</v>
+      </c>
+      <c r="H18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="14.4">
+      <c r="A19" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="6">
+        <v>30</v>
+      </c>
+      <c r="D19" s="6">
+        <v>12</v>
+      </c>
+      <c r="H19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="F20">
+        <f>AVERAGE(H18:H20)</f>
+        <v>5.333333333333333</v>
+      </c>
+      <c r="H20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="D21">
+        <f>AVERAGEIFS(D2:D19,B2:B19,"SmartPhone",C2:C19,"&gt;50")</f>
+        <v>27.333333333333332</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>